--- a/app/static/images/user (1).xlsx
+++ b/app/static/images/user (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB\T-Park\app\static\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79785B79-DA6E-4EF6-B195-2CE445BA99F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD046CA-31BF-44EB-ADCC-1EC30FAE7507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="1230" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Пользователи" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="294">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>почта</t>
   </si>
   <si>
@@ -43,39 +40,6 @@
     <t>Регион</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>a@y.r</t>
   </si>
   <si>
@@ -106,9 +70,6 @@
     <t>n@y.t</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>team 1</t>
   </si>
   <si>
@@ -121,17 +82,833 @@
     <t>team 112</t>
   </si>
   <si>
-    <t>team 132</t>
-  </si>
-  <si>
-    <t>team</t>
+    <t>Калуга</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Жуков</t>
+  </si>
+  <si>
+    <t>Обнинск</t>
+  </si>
+  <si>
+    <t>aa@y.r</t>
+  </si>
+  <si>
+    <t>bb@y.t</t>
+  </si>
+  <si>
+    <t>cc@y.r</t>
+  </si>
+  <si>
+    <t>gd@y.r</t>
+  </si>
+  <si>
+    <t>ge@y.t</t>
+  </si>
+  <si>
+    <t>gf@y.r</t>
+  </si>
+  <si>
+    <t>gg@y.t</t>
+  </si>
+  <si>
+    <t>gh@y.r</t>
+  </si>
+  <si>
+    <t>gm@y.r</t>
+  </si>
+  <si>
+    <t>gn@y.t</t>
+  </si>
+  <si>
+    <t>ga@y.r</t>
+  </si>
+  <si>
+    <t>gb@y.t</t>
+  </si>
+  <si>
+    <t>hc@y.r</t>
+  </si>
+  <si>
+    <t>hd@y.r</t>
+  </si>
+  <si>
+    <t>he@y.t</t>
+  </si>
+  <si>
+    <t>hf@y.r</t>
+  </si>
+  <si>
+    <t>hg@y.t</t>
+  </si>
+  <si>
+    <t>hh@y.r</t>
+  </si>
+  <si>
+    <t>hm@y.r</t>
+  </si>
+  <si>
+    <t>hn@y.t</t>
+  </si>
+  <si>
+    <t>ja@y.r</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 1</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 2</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 3</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 4</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 5</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 6</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 7</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 8</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 9</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 10</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 11</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 12</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 13</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 14</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 15</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 16</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 17</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 18</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 19</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 20</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 21</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 22</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 23</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 24</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 25</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 26</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 27</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 28</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 29</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 30</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 31</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 32</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 33</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 34</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 35</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 36</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 37</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 38</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 39</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 40</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 41</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 42</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 43</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 44</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 45</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 46</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 47</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 48</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 49</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 50</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 51</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 52</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 53</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 54</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 55</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 56</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 57</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 58</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 59</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 60</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 61</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 62</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 63</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 64</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 65</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 66</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 67</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 68</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 69</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 70</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 71</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 72</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 73</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 74</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 75</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 76</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 77</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 78</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 79</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 80</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 81</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 82</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 83</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 84</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 85</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 86</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 87</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 88</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 89</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 90</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 91</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 92</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 93</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 94</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 95</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 96</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 97</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 98</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 99</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 100</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 101</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 102</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 103</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 104</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 105</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 106</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 107</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 108</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 109</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 110</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 111</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 112</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 113</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 114</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 115</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 116</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 117</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 118</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 119</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 120</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 121</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 122</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 123</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 124</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 125</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 126</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 127</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 128</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 129</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 130</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 131</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 132</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 133</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 134</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 135</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 136</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 137</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 138</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 139</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 140</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 141</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 142</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 143</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 144</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 145</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 146</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 147</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 148</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 149</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 150</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 151</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 152</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 153</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 154</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 155</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 156</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 157</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 158</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 159</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 160</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 161</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 162</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 163</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 164</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 165</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 166</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 167</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 168</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 169</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 170</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 171</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 172</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 173</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 174</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 175</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 176</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 177</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 178</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 179</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 180</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 181</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 182</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 183</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 184</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 185</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 186</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 187</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 188</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 189</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 190</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 191</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 192</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 193</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 194</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 195</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 196</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 197</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 198</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 199</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 200</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 201</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 202</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 203</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 204</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 205</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 206</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 207</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 208</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 209</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 210</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 211</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 212</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 213</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 214</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 215</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 216</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 217</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 218</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 219</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 220</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 221</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 222</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 223</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 224</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 225</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 226</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 227</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 228</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 229</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 230</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 231</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 232</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 233</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 234</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 235</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 236</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 237</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 238</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 239</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 240</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 241</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 242</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 243</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 244</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 245</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 246</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 247</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 248</t>
+  </si>
+  <si>
+    <t>Иваглв Иван Иванович 249</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +928,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -203,7 +986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -215,6 +998,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -556,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="D239" sqref="D239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,924 +1358,4299 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>32085</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>32452</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5">
+        <v>32819</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>33186</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>33553</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5">
-        <v>33181</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5">
-        <v>33182</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5">
-        <v>33183</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5">
-        <v>33184</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="5">
-        <v>33185</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="5">
-        <v>33186</v>
+        <v>33920</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <v>34287</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
+        <v>34654</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5">
+        <v>35021</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5">
+        <v>35388</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5">
+        <v>35755</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5">
+        <v>36122</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5">
+        <v>36489</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5">
+        <v>36856</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5">
+        <v>37223</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="5">
+        <v>37590</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5">
+        <v>37957</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="D19" s="5">
+        <v>38324</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="5">
+        <v>38691</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="5">
+        <v>39058</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="5">
+        <v>39425</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="5">
+        <v>39792</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="5">
+        <v>40159</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="5">
+        <v>40526</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="5">
+        <v>40543</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="5">
+        <v>40178</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="5">
+        <v>39813</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="5">
+        <v>39448</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="5">
+        <v>39083</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="5">
+        <v>38718</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="5">
+        <v>38353</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="5">
+        <v>37988</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5">
+        <v>37623</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="5">
+        <v>37258</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="5">
+        <v>36893</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="5">
+        <v>36528</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="5">
+        <v>36163</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D39" s="5">
+        <v>35798</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="5">
+        <v>35433</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="5">
+        <v>35068</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="5">
+        <v>34703</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5">
-        <v>33187</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="D43" s="5">
+        <v>34338</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="5">
+        <v>33973</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="5">
+        <v>33608</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="5">
+        <v>33243</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="5">
+        <v>32878</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="5">
+        <v>32513</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="5">
+        <v>32148</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="5">
+        <v>31783</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="D51" s="5">
+        <v>31418</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="5">
+        <v>31053</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="5">
+        <v>30688</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="5">
+        <v>30323</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="5">
+        <v>29958</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="5">
+        <v>29593</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="5">
+        <v>29228</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="5">
+        <v>28863</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="5">
+        <v>28498</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="5">
+        <v>28133</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="5">
+        <v>27768</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="5">
+        <v>27403</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="5">
+        <v>27038</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="5">
+        <v>26673</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="5">
+        <v>26308</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="5">
+        <v>25943</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="5">
+        <v>25578</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="5">
+        <v>25213</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="5">
+        <v>24848</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="5">
+        <v>24483</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D71" s="5">
+        <v>24118</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="5">
+        <v>23753</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="5">
+        <v>23388</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="5">
+        <v>23023</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5">
-        <v>33188</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D75" s="5">
+        <v>22658</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F75" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="5">
+        <v>22293</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" s="5">
+        <v>21928</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="5">
+        <v>40543</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="5">
+        <v>40178</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="5">
+        <v>39813</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" s="5">
+        <v>39448</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="D82" s="5">
+        <v>39083</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" s="5">
+        <v>38718</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" s="5">
+        <v>38353</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="5">
+        <v>37988</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D86" s="5">
+        <v>37623</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="5">
+        <v>37258</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" s="5">
+        <v>36893</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D89" s="5">
+        <v>36528</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D90" s="5">
+        <v>36163</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" s="5">
+        <v>35798</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" s="5">
+        <v>35433</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" s="5">
+        <v>35068</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94" s="5">
+        <v>34703</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="5">
+        <v>34338</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="5">
+        <v>33973</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="5">
+        <v>33608</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="5">
+        <v>33243</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="5">
+        <v>32878</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="5">
+        <v>32513</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="5">
+        <v>32148</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="5">
+        <v>31783</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D103" s="5">
+        <v>31418</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="5">
+        <v>31053</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="5">
+        <v>30688</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="5">
+        <v>30323</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5">
-        <v>33189</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="D107" s="5">
+        <v>29958</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="5">
+        <v>29593</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" s="5">
+        <v>29228</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D110" s="5">
+        <v>28863</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" s="5">
+        <v>28498</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D112" s="5">
+        <v>28133</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D113" s="5">
+        <v>27768</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="D114" s="5">
+        <v>27403</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" s="5">
+        <v>27038</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D116" s="5">
+        <v>26673</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" s="5">
+        <v>26308</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D118" s="5">
+        <v>25943</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D119" s="5">
+        <v>25578</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D120" s="5">
+        <v>25213</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D121" s="5">
+        <v>24848</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D122" s="5">
+        <v>24483</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D123" s="5">
+        <v>24118</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D124" s="5">
+        <v>23753</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D125" s="5">
+        <v>23388</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="5">
+        <v>23023</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="5">
+        <v>22658</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="5">
+        <v>22293</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="5">
+        <v>21928</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="5">
+        <v>40543</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="5">
+        <v>40178</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="5">
+        <v>39813</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="5">
+        <v>39448</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="5">
+        <v>39083</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D135" s="5">
+        <v>38718</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D136" s="5">
+        <v>38353</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" s="5">
+        <v>37988</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" s="5">
+        <v>37623</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5">
-        <v>33190</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D139" s="5">
+        <v>37258</v>
+      </c>
+      <c r="E139" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F139" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" s="5">
+        <v>36893</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141" s="5">
+        <v>36528</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B142" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D142" s="5">
+        <v>36163</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B143" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D143" s="5">
+        <v>35798</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B144" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D144" s="5">
+        <v>35433</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D145" s="5">
+        <v>35068</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B146" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="6"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="6"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="6"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="6"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="6"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="6"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="6"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="6"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="6"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="6"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="6"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="6"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="6"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="6"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="6"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="6"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="6"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="6"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="6"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="6"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="6"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="6"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="6"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="6"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="6"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="6"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="6"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="6"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="6"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="6"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="6"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="6"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="6"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="6"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="6"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="6"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="6"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="6"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="6"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="6"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="6"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="6"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="6"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="6"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="6"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="6"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="6"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="6"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="6"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="6"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="6"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="6"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="6"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="6"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="6"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="6"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="6"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="6"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="6"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="6"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="6"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="6"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="6"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="6"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="6"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="6"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="6"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="6"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="6"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="6"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="6"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="6"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="6"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="6"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="6"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="6"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="6"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="6"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="6"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="6"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="6"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="6"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="6"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="6"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="6"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="6"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="6"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="6"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="6"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="6"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="6"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="6"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="6"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="6"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="6"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="6"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="6"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="6"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="6"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="6"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="6"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="6"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="6"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="6"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="6"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="6"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="6"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="6"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="6"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="6"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="6"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="6"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="6"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="6"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="6"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="6"/>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="6"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="6"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="6"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="6"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="6"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="6"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="6"/>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="6"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="6"/>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="6"/>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="6"/>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="6"/>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="6"/>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="6"/>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="6"/>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="6"/>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" s="6"/>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="6"/>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="6"/>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="6"/>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" s="6"/>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="6"/>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="6"/>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="6"/>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="6"/>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" s="6"/>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" s="6"/>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" s="6"/>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" s="6"/>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B205" s="6"/>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B206" s="6"/>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B207" s="6"/>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B208" s="6"/>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" s="6"/>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" s="6"/>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" s="6"/>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" s="6"/>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" s="6"/>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" s="6"/>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" s="6"/>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" s="6"/>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="6"/>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" s="6"/>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" s="6"/>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" s="6"/>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" s="6"/>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B222" s="6"/>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" s="6"/>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" s="6"/>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" s="6"/>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B226" s="6"/>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" s="6"/>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B228" s="6"/>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" s="6"/>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" s="6"/>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" s="6"/>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B232" s="6"/>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B233" s="6"/>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B234" s="6"/>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B235" s="6"/>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B236" s="6"/>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B237" s="6"/>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B238" s="6"/>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B239" s="6"/>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B240" s="6"/>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" s="6"/>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" s="6"/>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B243" s="6"/>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B244" s="6"/>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B245" s="6"/>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B246" s="6"/>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B247" s="6"/>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B248" s="6"/>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B249" s="6"/>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B250" s="6"/>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D146" s="5">
+        <v>34703</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B147" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D147" s="5">
+        <v>34338</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B148" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D148" s="5">
+        <v>33973</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B149" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D149" s="5">
+        <v>33608</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B150" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D150" s="5">
+        <v>33243</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B151" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D151" s="5">
+        <v>32878</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D152" s="5">
+        <v>32513</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B153" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D153" s="5">
+        <v>32148</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D154" s="5">
+        <v>31783</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B155" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D155" s="5">
+        <v>31418</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B156" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D156" s="5">
+        <v>31053</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B157" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="5">
+        <v>30688</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B158" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="5">
+        <v>30323</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="5">
+        <v>29958</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B160" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="5">
+        <v>29593</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B161" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" s="5">
+        <v>29228</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B162" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="5">
+        <v>28863</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B163" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D163" s="5">
+        <v>28498</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B164" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="5">
+        <v>28133</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B165" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" s="5">
+        <v>27768</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B166" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" s="5">
+        <v>27403</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B167" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D167" s="5">
+        <v>27038</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B168" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="5">
+        <v>26673</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B169" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D169" s="5">
+        <v>26308</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B170" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" s="5">
+        <v>25943</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B171" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" s="5">
+        <v>25578</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B172" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D172" s="5">
+        <v>25213</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B173" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D173" s="5">
+        <v>24848</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B174" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D174" s="5">
+        <v>24483</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B175" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D175" s="5">
+        <v>24118</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B176" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D176" s="5">
+        <v>23753</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B177" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D177" s="5">
+        <v>23388</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B178" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D178" s="5">
+        <v>23023</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B179" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D179" s="5">
+        <v>22658</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B180" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D180" s="5">
+        <v>22293</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F180" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B181" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D181" s="5">
+        <v>21928</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B182" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D182" s="5">
+        <v>40543</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B183" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D183" s="5">
+        <v>40178</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B184" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D184" s="5">
+        <v>39813</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B185" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D185" s="5">
+        <v>39448</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B186" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D186" s="5">
+        <v>39083</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B187" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D187" s="5">
+        <v>38718</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B188" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="5">
+        <v>38353</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B189" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" s="5">
+        <v>37988</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B190" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" s="5">
+        <v>37623</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B191" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="5">
+        <v>37258</v>
+      </c>
+      <c r="E191" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B192" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" s="5">
+        <v>36893</v>
+      </c>
+      <c r="E192" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B193" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" s="5">
+        <v>36528</v>
+      </c>
+      <c r="E193" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B194" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194" s="5">
+        <v>36163</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B195" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" s="5">
+        <v>35798</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F195" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B196" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D196" s="5">
+        <v>35433</v>
+      </c>
+      <c r="E196" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B197" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" s="5">
+        <v>35068</v>
+      </c>
+      <c r="E197" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B198" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D198" s="5">
+        <v>34703</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B199" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D199" s="5">
+        <v>34338</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B200" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D200" s="5">
+        <v>33973</v>
+      </c>
+      <c r="E200" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B201" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D201" s="5">
+        <v>33608</v>
+      </c>
+      <c r="E201" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B202" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" s="5">
+        <v>33243</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B203" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D203" s="5">
+        <v>32878</v>
+      </c>
+      <c r="E203" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B204" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D204" s="5">
+        <v>32513</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B205" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D205" s="5">
+        <v>32148</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B206" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D206" s="5">
+        <v>31783</v>
+      </c>
+      <c r="E206" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B207" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D207" s="5">
+        <v>31418</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F207" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B208" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D208" s="5">
+        <v>31053</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B209" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D209" s="5">
+        <v>30688</v>
+      </c>
+      <c r="E209" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B210" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D210" s="5">
+        <v>30323</v>
+      </c>
+      <c r="E210" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B211" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D211" s="5">
+        <v>29958</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F211" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B212" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D212" s="5">
+        <v>29593</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B213" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D213" s="5">
+        <v>29228</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B214" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D214" s="5">
+        <v>28863</v>
+      </c>
+      <c r="E214" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B215" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D215" s="5">
+        <v>28498</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F215" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B216" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D216" s="5">
+        <v>28133</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B217" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D217" s="5">
+        <v>27768</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B218" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D218" s="5">
+        <v>27403</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B219" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" s="5">
+        <v>27038</v>
+      </c>
+      <c r="E219" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B220" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D220" s="5">
+        <v>26673</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B221" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" s="5">
+        <v>26308</v>
+      </c>
+      <c r="E221" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B222" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" s="5">
+        <v>25943</v>
+      </c>
+      <c r="E222" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F222" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B223" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D223" s="5">
+        <v>25578</v>
+      </c>
+      <c r="E223" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F223" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B224" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D224" s="5">
+        <v>25213</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B225" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="5">
+        <v>24848</v>
+      </c>
+      <c r="E225" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F225" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B226" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" s="5">
+        <v>24483</v>
+      </c>
+      <c r="E226" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F226" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B227" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D227" s="5">
+        <v>24118</v>
+      </c>
+      <c r="E227" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B228" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" s="5">
+        <v>23753</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F228" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B229" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D229" s="5">
+        <v>23388</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F229" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B230" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D230" s="5">
+        <v>23023</v>
+      </c>
+      <c r="E230" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F230" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B231" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D231" s="5">
+        <v>22658</v>
+      </c>
+      <c r="E231" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B232" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D232" s="5">
+        <v>22293</v>
+      </c>
+      <c r="E232" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B233" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" s="5">
+        <v>21928</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B234" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D234" s="5">
+        <v>27768</v>
+      </c>
+      <c r="E234" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F234" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B235" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D235" s="5">
+        <v>27403</v>
+      </c>
+      <c r="E235" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B236" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D236" s="5">
+        <v>27038</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F236" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B237" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D237" s="5">
+        <v>26673</v>
+      </c>
+      <c r="E237" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B238" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D238" s="5">
+        <v>26308</v>
+      </c>
+      <c r="E238" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F238" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B239" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D239" s="5">
+        <v>25943</v>
+      </c>
+      <c r="E239" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B240" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D240" s="5">
+        <v>25578</v>
+      </c>
+      <c r="E240" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B241" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D241" s="5">
+        <v>25213</v>
+      </c>
+      <c r="E241" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B242" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D242" s="5">
+        <v>24848</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F242" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B243" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D243" s="5">
+        <v>24483</v>
+      </c>
+      <c r="E243" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B244" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D244" s="5">
+        <v>24118</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B245" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D245" s="5">
+        <v>23753</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B246" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D246" s="5">
+        <v>23388</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F246" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B247" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D247" s="5">
+        <v>23023</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F247" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B248" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D248" s="5">
+        <v>22658</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B249" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D249" s="5">
+        <v>22293</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B250" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" s="5">
+        <v>21928</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B251" s="6"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B252" s="6"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B253" s="6"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B254" s="6"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B255" s="6"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B256" s="6"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
@@ -3727,12 +7886,217 @@
       <c r="B1000" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{ADD38E79-B887-440A-B1CF-690EA088DC12}"/>
     <hyperlink ref="C8" r:id="rId2" xr:uid="{773E650A-6C3E-483D-AB0B-D4561E9B9711}"/>
     <hyperlink ref="C9" r:id="rId3" xr:uid="{6C34B9EA-7F5C-4DB4-8124-3F56E840F04F}"/>
     <hyperlink ref="C10" r:id="rId4" xr:uid="{34054856-DD52-4C63-AC3C-BB64CF1FAC0F}"/>
     <hyperlink ref="C11" r:id="rId5" xr:uid="{256BF75E-E506-477D-BAE5-48BE15F09EFC}"/>
+    <hyperlink ref="C17" r:id="rId6" xr:uid="{AE8C1D54-A7B6-4D71-80BA-1560A2540C29}"/>
+    <hyperlink ref="C27" r:id="rId7" xr:uid="{6B8B0931-FB80-4DEE-892B-EED4F6C8B538}"/>
+    <hyperlink ref="A1" r:id="rId8" display="n@y.t" xr:uid="{757FA203-6355-4D3F-A559-5B33004575CE}"/>
+    <hyperlink ref="C18" r:id="rId9" xr:uid="{817DF7F5-A036-4D49-994E-F714BAD695EC}"/>
+    <hyperlink ref="C28" r:id="rId10" xr:uid="{9D056096-4837-4BA2-AAC8-7651E123BB6E}"/>
+    <hyperlink ref="C19" r:id="rId11" xr:uid="{5A6A124D-8E43-4E3C-BC19-A288F1C475A2}"/>
+    <hyperlink ref="C29" r:id="rId12" xr:uid="{C5F08FC1-FF47-40F3-AEEE-87D6E417A0BE}"/>
+    <hyperlink ref="C20" r:id="rId13" xr:uid="{A80FBAE4-5BCC-4CAD-9E54-48B3910C0424}"/>
+    <hyperlink ref="C30" r:id="rId14" xr:uid="{1280F2AE-E9A8-4276-841C-B73A7F3B4EA0}"/>
+    <hyperlink ref="C21" r:id="rId15" xr:uid="{C0173CD9-BE1B-4286-B9C3-95E2614A87EB}"/>
+    <hyperlink ref="C31" r:id="rId16" xr:uid="{E8A8A92D-442B-493D-A1CC-051D9F1D3A81}"/>
+    <hyperlink ref="C12" r:id="rId17" xr:uid="{D9E4ABD7-029D-4C6B-B2CE-AE6CDE8FE589}"/>
+    <hyperlink ref="C13" r:id="rId18" xr:uid="{9A79E883-F0BA-470D-9C6D-DDC240876B14}"/>
+    <hyperlink ref="C14" r:id="rId19" xr:uid="{1289F9D5-6D18-4C39-B9C2-85F7D040336E}"/>
+    <hyperlink ref="C15" r:id="rId20" xr:uid="{D89A1D94-1127-4647-91E0-D5CA3D04CD8A}"/>
+    <hyperlink ref="C16" r:id="rId21" xr:uid="{4B3B321F-889E-454B-99AE-F8201CDFAC57}"/>
+    <hyperlink ref="C22" r:id="rId22" xr:uid="{7B75CCD1-FEC3-4931-B814-E8FEC2F640E8}"/>
+    <hyperlink ref="C23" r:id="rId23" xr:uid="{C5DBCCF9-833E-4122-9108-430B9A5B8908}"/>
+    <hyperlink ref="C24" r:id="rId24" xr:uid="{8349FAA8-A1DB-4E7B-B109-3CA8BF1CA0A2}"/>
+    <hyperlink ref="C25" r:id="rId25" xr:uid="{C7E18012-1E0B-4FB3-BD7B-05F76D79F164}"/>
+    <hyperlink ref="C26" r:id="rId26" xr:uid="{80171FF7-3488-4FBE-9812-28B183E347A9}"/>
+    <hyperlink ref="C32" r:id="rId27" xr:uid="{655B8CA2-BCD1-4B55-8FDC-BB54E64D3FA4}"/>
+    <hyperlink ref="C38" r:id="rId28" xr:uid="{237433B7-AA5B-4D35-A23D-C062997C0404}"/>
+    <hyperlink ref="C69" r:id="rId29" xr:uid="{F6DE2D22-4B30-4057-8CDA-2CCDB8A79648}"/>
+    <hyperlink ref="C100" r:id="rId30" xr:uid="{3AAB6FD9-D346-4EAD-9026-6D0423C9A180}"/>
+    <hyperlink ref="C131" r:id="rId31" xr:uid="{1A6247BC-AF0E-423B-96FB-A10EFB5E0D12}"/>
+    <hyperlink ref="C162" r:id="rId32" xr:uid="{654C1C4B-5A3B-498A-9460-5848D738F292}"/>
+    <hyperlink ref="C193" r:id="rId33" xr:uid="{DEFF1D3E-055A-4404-9592-F4899442C59F}"/>
+    <hyperlink ref="C224" r:id="rId34" xr:uid="{D135A7F0-D6A7-4AE7-8533-0E897A36377C}"/>
+    <hyperlink ref="C39" r:id="rId35" xr:uid="{D0C887D9-61B3-4445-A97B-75629897FF69}"/>
+    <hyperlink ref="C70" r:id="rId36" xr:uid="{3D1C25EC-580C-4F45-BA20-9C1B02537368}"/>
+    <hyperlink ref="C101" r:id="rId37" xr:uid="{FFC8FA6F-03FF-4634-94DE-F89CCB643D17}"/>
+    <hyperlink ref="C132" r:id="rId38" xr:uid="{141EEFD2-004A-466B-AEC0-898203314552}"/>
+    <hyperlink ref="C163" r:id="rId39" xr:uid="{5122DBB2-2CE7-4774-842E-BE0E97654F6A}"/>
+    <hyperlink ref="C194" r:id="rId40" xr:uid="{734317F2-8FE5-44A2-86DD-1C7A8E7EF0BE}"/>
+    <hyperlink ref="C225" r:id="rId41" xr:uid="{E4951192-66E5-452A-9BCB-7F0E3856AC55}"/>
+    <hyperlink ref="C40" r:id="rId42" xr:uid="{7AF1329B-49E0-452B-9DE0-D6AA983075DD}"/>
+    <hyperlink ref="C71" r:id="rId43" xr:uid="{90FCFCCE-78F1-4703-BCC6-A3EE38BB824D}"/>
+    <hyperlink ref="C102" r:id="rId44" xr:uid="{EA56F926-13A5-4C7E-8505-ED57D70947F4}"/>
+    <hyperlink ref="C133" r:id="rId45" xr:uid="{4162330A-42C8-4FC6-B31B-00EF75505AF1}"/>
+    <hyperlink ref="C164" r:id="rId46" xr:uid="{588D8B1D-6DB7-492A-827A-A6B6C0B908C5}"/>
+    <hyperlink ref="C195" r:id="rId47" xr:uid="{7EEBD595-9543-4501-A30A-E6823D68A1A1}"/>
+    <hyperlink ref="C226" r:id="rId48" xr:uid="{D31F9877-2F50-48D3-B3B5-4ECBD573B564}"/>
+    <hyperlink ref="C41" r:id="rId49" xr:uid="{14B411B5-F933-4C49-82BB-5FD6C885F4CC}"/>
+    <hyperlink ref="C72" r:id="rId50" xr:uid="{F955A9D2-271B-42E1-AAE0-A9B7C5ABAD59}"/>
+    <hyperlink ref="C103" r:id="rId51" xr:uid="{55B3E062-50AF-4E2B-AD1D-338B9EF51292}"/>
+    <hyperlink ref="C134" r:id="rId52" xr:uid="{D1BDFBD2-CC32-4205-9935-18AB6B140872}"/>
+    <hyperlink ref="C165" r:id="rId53" xr:uid="{E2CAF3B8-1DFF-4510-9624-BAB98E5EEB43}"/>
+    <hyperlink ref="C196" r:id="rId54" xr:uid="{FFCB4265-EDA2-4D6F-AF95-9207D08ADB06}"/>
+    <hyperlink ref="C227" r:id="rId55" xr:uid="{66EED8B4-5DDE-43E6-A394-85534CADFE21}"/>
+    <hyperlink ref="C42" r:id="rId56" xr:uid="{AC8348F2-C66E-4687-8C22-D4CBF9B29115}"/>
+    <hyperlink ref="C73" r:id="rId57" xr:uid="{FA43F9A7-05F1-4034-9265-84C544339C4C}"/>
+    <hyperlink ref="C104" r:id="rId58" xr:uid="{1A24F6BC-B724-4EAE-8139-DAE31E38135B}"/>
+    <hyperlink ref="C135" r:id="rId59" xr:uid="{74802798-C738-48DE-9C97-B71999DCCA21}"/>
+    <hyperlink ref="C166" r:id="rId60" xr:uid="{33FD864B-37F4-4F43-BD15-545A9FA515CA}"/>
+    <hyperlink ref="C197" r:id="rId61" xr:uid="{B80FE942-1FA1-49E6-A3F2-AD93E0430D6E}"/>
+    <hyperlink ref="C228" r:id="rId62" xr:uid="{5A3C60A6-3458-456E-800B-39F925BE5D1C}"/>
+    <hyperlink ref="C48" r:id="rId63" xr:uid="{B9080DAC-C056-4080-A04D-849FC5482677}"/>
+    <hyperlink ref="C79" r:id="rId64" xr:uid="{1853DF58-C1F6-419D-8A0D-B2A1D69D4486}"/>
+    <hyperlink ref="C110" r:id="rId65" xr:uid="{75DA5360-336B-4EFF-A86D-160BC48855E2}"/>
+    <hyperlink ref="C141" r:id="rId66" xr:uid="{DADEFE4F-DD71-47DC-8548-0A8C13985A3A}"/>
+    <hyperlink ref="C172" r:id="rId67" xr:uid="{94540772-73FA-4B22-B6A3-71F0DABAAC1C}"/>
+    <hyperlink ref="C203" r:id="rId68" xr:uid="{352AB0D2-5A7C-4BC5-9F7B-324130B5EA20}"/>
+    <hyperlink ref="C234" r:id="rId69" xr:uid="{43DC7EC4-2A38-402F-A5F6-BE0AC82DA9A4}"/>
+    <hyperlink ref="C58" r:id="rId70" xr:uid="{30702B5A-334E-4C27-952F-B08A4ECE7FE2}"/>
+    <hyperlink ref="C89" r:id="rId71" xr:uid="{20E2BDC6-7190-44C7-9ED1-988719B88394}"/>
+    <hyperlink ref="C120" r:id="rId72" xr:uid="{F99B3A88-BFC8-4E12-8A35-7746848238E6}"/>
+    <hyperlink ref="C151" r:id="rId73" xr:uid="{E376980B-C4FB-495C-80EB-F337FD64B234}"/>
+    <hyperlink ref="C182" r:id="rId74" xr:uid="{8352563E-FD97-4B01-847F-FE10D5FEC5B5}"/>
+    <hyperlink ref="C213" r:id="rId75" xr:uid="{A9BE3F47-EFB7-4845-A696-2352A0573307}"/>
+    <hyperlink ref="C244" r:id="rId76" xr:uid="{DCC3AA0B-6345-4EFF-B52E-760562695571}"/>
+    <hyperlink ref="C49" r:id="rId77" xr:uid="{77866B16-01CD-4F00-9E32-DA401F8FBD33}"/>
+    <hyperlink ref="C80" r:id="rId78" xr:uid="{672C8810-21A6-4D39-B7B1-875D349DF8C8}"/>
+    <hyperlink ref="C111" r:id="rId79" xr:uid="{76ECDEDE-F32D-4DDA-BD47-0F1EAED467B2}"/>
+    <hyperlink ref="C142" r:id="rId80" xr:uid="{CEF8E1F1-0B2D-4151-AD6E-1DFD7CD77DAE}"/>
+    <hyperlink ref="C173" r:id="rId81" xr:uid="{7D4D303D-7D12-41C0-9BD9-75A4C10C1FF6}"/>
+    <hyperlink ref="C204" r:id="rId82" xr:uid="{D0AF1F9D-1B82-4EB2-B1DB-F851BB13C892}"/>
+    <hyperlink ref="C235" r:id="rId83" xr:uid="{F7C875D6-CD81-4924-A5BE-E0739F1B6D3B}"/>
+    <hyperlink ref="C59" r:id="rId84" xr:uid="{97DE606E-3D45-47D3-9A76-1255648F4104}"/>
+    <hyperlink ref="C90" r:id="rId85" xr:uid="{D797190F-7E8C-4340-A041-0423CB1B0FFC}"/>
+    <hyperlink ref="C121" r:id="rId86" xr:uid="{47259CFC-4A92-41C7-A2E9-C388CAAE83C3}"/>
+    <hyperlink ref="C152" r:id="rId87" xr:uid="{AB55B4B2-1ECB-4583-BEA1-50B3E743EBB4}"/>
+    <hyperlink ref="C183" r:id="rId88" xr:uid="{092F27C1-CC67-4FC0-80FC-B007FB959156}"/>
+    <hyperlink ref="C214" r:id="rId89" xr:uid="{F130C6BA-2C92-412E-B245-5DA097EF1A62}"/>
+    <hyperlink ref="C245" r:id="rId90" xr:uid="{AA0C6B3F-EB90-44F7-AF98-272DB2F8F557}"/>
+    <hyperlink ref="C50" r:id="rId91" xr:uid="{2B849696-5BCC-4F86-865A-146DB8E4BBEF}"/>
+    <hyperlink ref="C81" r:id="rId92" xr:uid="{964F5710-38BC-4C77-B612-CC2266DC775F}"/>
+    <hyperlink ref="C112" r:id="rId93" xr:uid="{FFEA5075-6C6A-4F78-84D0-9BC88CFDBA63}"/>
+    <hyperlink ref="C143" r:id="rId94" xr:uid="{63F46087-E9CE-4148-9203-B37EB6C6D117}"/>
+    <hyperlink ref="C174" r:id="rId95" xr:uid="{A4B7E2E0-1F17-4369-A032-170C7CD23E0C}"/>
+    <hyperlink ref="C205" r:id="rId96" xr:uid="{804AF5EE-D3D8-479D-BBFE-D00AEB86F81B}"/>
+    <hyperlink ref="C236" r:id="rId97" xr:uid="{C9BEB5A5-DFAA-40B3-A8CE-ECFC47AA4E6A}"/>
+    <hyperlink ref="C60" r:id="rId98" xr:uid="{1D949BCF-8B7C-488D-AD45-FAC76944E64D}"/>
+    <hyperlink ref="C91" r:id="rId99" xr:uid="{24ADA81C-DA91-49FC-8DCE-535ABC71EFE1}"/>
+    <hyperlink ref="C122" r:id="rId100" xr:uid="{630F1EFE-19AE-4803-ADD7-114D97A718C9}"/>
+    <hyperlink ref="C153" r:id="rId101" xr:uid="{C66D9349-8940-4FB0-8D54-2A27AB257E35}"/>
+    <hyperlink ref="C184" r:id="rId102" xr:uid="{063B7A7F-FF27-4EDD-961F-281AE4872EAF}"/>
+    <hyperlink ref="C215" r:id="rId103" xr:uid="{65CC9304-00E0-47BB-B110-73BA26F5A00D}"/>
+    <hyperlink ref="C246" r:id="rId104" xr:uid="{0C53168C-75D3-408A-9E16-D23B64820170}"/>
+    <hyperlink ref="C51" r:id="rId105" xr:uid="{310A90D6-0848-4851-A5EB-221AD7AA0D92}"/>
+    <hyperlink ref="C82" r:id="rId106" xr:uid="{D86D8C10-3A9F-40D0-9EAD-58D78637B831}"/>
+    <hyperlink ref="C113" r:id="rId107" xr:uid="{17CE68D8-6D51-4A14-835D-98B086125242}"/>
+    <hyperlink ref="C144" r:id="rId108" xr:uid="{FD2360EC-D3FE-467E-97C5-2CA429B3D7A2}"/>
+    <hyperlink ref="C175" r:id="rId109" xr:uid="{8BD1A9E1-2623-4ABA-B9B9-790CD35BA711}"/>
+    <hyperlink ref="C206" r:id="rId110" xr:uid="{23AB646C-A684-4961-9C92-CDEA04A562D6}"/>
+    <hyperlink ref="C237" r:id="rId111" xr:uid="{86D890E4-1194-40CD-8523-23E1F4CF6BDF}"/>
+    <hyperlink ref="C61" r:id="rId112" xr:uid="{C9FDD89A-26D9-4B7C-8D4B-26162BD6DA6B}"/>
+    <hyperlink ref="C92" r:id="rId113" xr:uid="{FE580B18-F870-4EA8-BCEC-451668D80F5A}"/>
+    <hyperlink ref="C123" r:id="rId114" xr:uid="{D94874B5-132A-44A1-A5AC-BCE2022EAFC4}"/>
+    <hyperlink ref="C154" r:id="rId115" xr:uid="{DC995FD6-E4D5-4327-A3CD-0AE6FA34617D}"/>
+    <hyperlink ref="C185" r:id="rId116" xr:uid="{9D2AC57B-80B3-4CDE-9B9D-D59ACFF9996F}"/>
+    <hyperlink ref="C216" r:id="rId117" xr:uid="{B42912D8-DBCA-4FE2-98A4-191EAEC07AC4}"/>
+    <hyperlink ref="C247" r:id="rId118" xr:uid="{CDB6C9F5-0102-4FE1-9482-559D071D3EBC}"/>
+    <hyperlink ref="C52" r:id="rId119" xr:uid="{874CAFAA-B440-4B6C-9808-70B57D3A51B3}"/>
+    <hyperlink ref="C83" r:id="rId120" xr:uid="{A1ADAE16-9502-4192-B604-C6A8DB81CD6E}"/>
+    <hyperlink ref="C114" r:id="rId121" xr:uid="{12FF8B8F-7602-4594-8F16-F3415879E7CD}"/>
+    <hyperlink ref="C145" r:id="rId122" xr:uid="{E73AB985-6E32-440A-8DBF-FDB584037019}"/>
+    <hyperlink ref="C176" r:id="rId123" xr:uid="{9EA4FFCC-A39B-40FA-BDAF-53E86EE2AB4E}"/>
+    <hyperlink ref="C207" r:id="rId124" xr:uid="{84B8FDCB-F991-4A99-A324-C036B668EF5F}"/>
+    <hyperlink ref="C238" r:id="rId125" xr:uid="{CCDF825A-D253-4595-8BEE-F73B08419DC7}"/>
+    <hyperlink ref="C62" r:id="rId126" xr:uid="{F0F0A9D4-1FB9-48C3-9315-A20BFF892B7B}"/>
+    <hyperlink ref="C93" r:id="rId127" xr:uid="{1C452197-7921-4263-AD0B-7D6BDA5475F6}"/>
+    <hyperlink ref="C124" r:id="rId128" xr:uid="{814E1022-26D1-436B-AA6D-C470D6DDEAFD}"/>
+    <hyperlink ref="C155" r:id="rId129" xr:uid="{66E98C45-727C-4551-B3B6-E454C190588D}"/>
+    <hyperlink ref="C186" r:id="rId130" xr:uid="{A4A5C391-7449-40B7-9319-654A42DE51F8}"/>
+    <hyperlink ref="C217" r:id="rId131" xr:uid="{6ABCDFB6-1A5C-4741-A8FC-BB066FE0A1BB}"/>
+    <hyperlink ref="C248" r:id="rId132" xr:uid="{23FF5C7A-24F2-4BC0-9479-2153D2CC4FB5}"/>
+    <hyperlink ref="C43" r:id="rId133" xr:uid="{58EA88F5-75A3-453A-8671-4FA252B9D666}"/>
+    <hyperlink ref="C74" r:id="rId134" xr:uid="{C674B5A5-777E-4D88-9027-6B2D2DCFF704}"/>
+    <hyperlink ref="C105" r:id="rId135" xr:uid="{8C53648E-8CFD-4369-8173-DEB9DD3D6179}"/>
+    <hyperlink ref="C136" r:id="rId136" xr:uid="{9F04721F-3D55-4309-B828-DA6AB5BDE3F2}"/>
+    <hyperlink ref="C167" r:id="rId137" xr:uid="{1BF9820D-60DC-4AE7-8D92-8DD477EC68FA}"/>
+    <hyperlink ref="C198" r:id="rId138" xr:uid="{324DF7F6-906E-4D76-B912-193419E63108}"/>
+    <hyperlink ref="C229" r:id="rId139" xr:uid="{314055D7-A4C6-4AAA-8DF5-59C6493B3D97}"/>
+    <hyperlink ref="C44" r:id="rId140" xr:uid="{56658959-A792-4235-91AF-424003191F73}"/>
+    <hyperlink ref="C75" r:id="rId141" xr:uid="{C66C6AE5-714D-4CDE-B31B-F693FD095CCF}"/>
+    <hyperlink ref="C106" r:id="rId142" xr:uid="{43DB2382-42F2-4CB4-AE66-F7010BDCF515}"/>
+    <hyperlink ref="C137" r:id="rId143" xr:uid="{23CC4AA4-FA53-4A90-9831-2D4FE2A63D06}"/>
+    <hyperlink ref="C168" r:id="rId144" xr:uid="{C3D7D353-3273-4E7E-8A16-DED3B40CE280}"/>
+    <hyperlink ref="C199" r:id="rId145" xr:uid="{10CD8BCA-7E51-4A23-A634-55C477309A6F}"/>
+    <hyperlink ref="C230" r:id="rId146" xr:uid="{6E05DE53-F116-4467-80E5-925679A19375}"/>
+    <hyperlink ref="C45" r:id="rId147" xr:uid="{F4D4B802-66C1-4DB9-8A2A-E1950D1B2B69}"/>
+    <hyperlink ref="C76" r:id="rId148" xr:uid="{99AA8C41-47BA-4D80-BE51-65C24A606352}"/>
+    <hyperlink ref="C107" r:id="rId149" xr:uid="{76E7882A-3CAB-4365-A97E-CEA7E95CE438}"/>
+    <hyperlink ref="C138" r:id="rId150" xr:uid="{E00DE3BF-C14A-40CD-87EF-81A3FC817CDD}"/>
+    <hyperlink ref="C169" r:id="rId151" xr:uid="{0052ECFD-8510-4490-8F09-68E3E317151F}"/>
+    <hyperlink ref="C200" r:id="rId152" xr:uid="{D42CFEAE-CE8D-4E68-993C-F96EE11A8275}"/>
+    <hyperlink ref="C231" r:id="rId153" xr:uid="{A67AD8C8-6A7F-4B98-AF19-F40BB8B0E5C5}"/>
+    <hyperlink ref="C46" r:id="rId154" xr:uid="{895C1ACA-F28B-448A-9C0E-1C1D906230A6}"/>
+    <hyperlink ref="C77" r:id="rId155" xr:uid="{886852D4-D14C-482A-A0B5-52F145AB3F4E}"/>
+    <hyperlink ref="C108" r:id="rId156" xr:uid="{FBF092E8-B228-49BF-8825-E10B66B7BAA2}"/>
+    <hyperlink ref="C139" r:id="rId157" xr:uid="{21E47D35-0A59-4ED5-8B00-94EFEC5F4F27}"/>
+    <hyperlink ref="C170" r:id="rId158" xr:uid="{C171F80A-F3FF-44F6-8B15-9CA343252B89}"/>
+    <hyperlink ref="C201" r:id="rId159" xr:uid="{78E20F14-1EED-4FC5-AE9D-63B30B07B45A}"/>
+    <hyperlink ref="C232" r:id="rId160" xr:uid="{A680C290-F00F-4BB1-9AB9-16EDF1BAE867}"/>
+    <hyperlink ref="C47" r:id="rId161" xr:uid="{5F322A8F-6524-4571-8EA6-E0B36ECEE6CB}"/>
+    <hyperlink ref="C78" r:id="rId162" xr:uid="{E0932B72-B6C9-4575-940C-C5C2816DA599}"/>
+    <hyperlink ref="C109" r:id="rId163" xr:uid="{39932BAA-A597-4C51-BB51-080C01879890}"/>
+    <hyperlink ref="C140" r:id="rId164" xr:uid="{1A0ED464-B04C-4A35-83F0-CD8DC1BF9A77}"/>
+    <hyperlink ref="C171" r:id="rId165" xr:uid="{7F65FE03-9800-40FF-B997-DF017AFFFCA8}"/>
+    <hyperlink ref="C202" r:id="rId166" xr:uid="{2EB727A7-EA50-4846-A069-43679E9DEACB}"/>
+    <hyperlink ref="C233" r:id="rId167" xr:uid="{49314E78-3DF4-4EB8-B4F1-F7F289DB9DD3}"/>
+    <hyperlink ref="C53" r:id="rId168" xr:uid="{80E4B112-AAFC-426C-A1FA-13EC18308130}"/>
+    <hyperlink ref="C84" r:id="rId169" xr:uid="{CA1AE067-4F91-46FC-AAFA-F413184FB9A0}"/>
+    <hyperlink ref="C115" r:id="rId170" xr:uid="{D987D4C0-19C7-43E9-A120-99C48579DF82}"/>
+    <hyperlink ref="C146" r:id="rId171" xr:uid="{5FB4A302-2BAC-46D6-A51D-1FC47E0F4C65}"/>
+    <hyperlink ref="C177" r:id="rId172" xr:uid="{013F7F20-C1FD-40D8-A12E-47A587E4D961}"/>
+    <hyperlink ref="C208" r:id="rId173" xr:uid="{15CC9E8C-7531-4DA3-A61D-19ED7A371A51}"/>
+    <hyperlink ref="C239" r:id="rId174" xr:uid="{365DDA5B-B27F-46F6-9CFB-7DD2826E53DD}"/>
+    <hyperlink ref="C54" r:id="rId175" xr:uid="{5F8B089A-CCBB-4A76-9469-AA93D6D30F80}"/>
+    <hyperlink ref="C85" r:id="rId176" xr:uid="{DA4FAE27-3C1F-4856-8F90-388C42F7C606}"/>
+    <hyperlink ref="C116" r:id="rId177" xr:uid="{A526AA42-D889-4464-8E9E-D8C9AB65FCCA}"/>
+    <hyperlink ref="C147" r:id="rId178" xr:uid="{B0C260BA-7668-4915-AACE-2AD47D223030}"/>
+    <hyperlink ref="C178" r:id="rId179" xr:uid="{92E79771-40B1-4BA9-82DC-76469743A047}"/>
+    <hyperlink ref="C209" r:id="rId180" xr:uid="{EEF1B6D5-061C-475B-8BF6-2A83DDEF9FA6}"/>
+    <hyperlink ref="C240" r:id="rId181" xr:uid="{139D6CE8-32E3-44E7-B885-289546C7F4E8}"/>
+    <hyperlink ref="C55" r:id="rId182" xr:uid="{4949A9A8-54C7-47C4-BC8B-63969CC18BA8}"/>
+    <hyperlink ref="C86" r:id="rId183" xr:uid="{5E651FDE-2C9B-4BAF-AAF1-49B75BB8808E}"/>
+    <hyperlink ref="C117" r:id="rId184" xr:uid="{E8F7B8B2-617B-4924-B82C-C5584CC90E0C}"/>
+    <hyperlink ref="C148" r:id="rId185" xr:uid="{BC5DC12B-D5E1-4460-B855-DFA7B35704F4}"/>
+    <hyperlink ref="C179" r:id="rId186" xr:uid="{CF0DD128-12B8-4F76-92ED-64B89BB01DAF}"/>
+    <hyperlink ref="C210" r:id="rId187" xr:uid="{202549A8-C9D9-4A73-8C9B-41C09601721B}"/>
+    <hyperlink ref="C241" r:id="rId188" xr:uid="{6924163A-388F-4A1E-9B71-73D0A9AB1E42}"/>
+    <hyperlink ref="C56" r:id="rId189" xr:uid="{60D20D8C-EB39-4795-BD2D-996F202A1988}"/>
+    <hyperlink ref="C87" r:id="rId190" xr:uid="{A8777A37-362B-490A-8A37-30C2876A288C}"/>
+    <hyperlink ref="C118" r:id="rId191" xr:uid="{33DA11DB-39ED-44D8-8ED1-958EF35CBD9E}"/>
+    <hyperlink ref="C149" r:id="rId192" xr:uid="{7759DF48-087C-49E7-A8B4-55C7A50AEE5C}"/>
+    <hyperlink ref="C180" r:id="rId193" xr:uid="{E29482F4-38ED-4B1A-83DA-56EB8F5972AF}"/>
+    <hyperlink ref="C211" r:id="rId194" xr:uid="{7030015D-4217-4DB2-89E0-E5E620CDED20}"/>
+    <hyperlink ref="C242" r:id="rId195" xr:uid="{65DAB43A-BF2D-4469-A05D-9BEAEAD48F83}"/>
+    <hyperlink ref="C57" r:id="rId196" xr:uid="{A1D1EA3D-2FC6-4082-BAA6-33DE16A7E382}"/>
+    <hyperlink ref="C88" r:id="rId197" xr:uid="{8F23F840-7C30-4035-B800-DE6E3379514B}"/>
+    <hyperlink ref="C119" r:id="rId198" xr:uid="{177F04E3-0CC0-4A9E-9367-34695F5759FF}"/>
+    <hyperlink ref="C150" r:id="rId199" xr:uid="{89373DDE-8B73-478D-A8BC-0DF341E4D699}"/>
+    <hyperlink ref="C181" r:id="rId200" xr:uid="{C7DCB92F-8023-4CB9-A991-813A43593E9B}"/>
+    <hyperlink ref="C212" r:id="rId201" xr:uid="{A881981A-3126-43FB-88DB-E22545F463F1}"/>
+    <hyperlink ref="C243" r:id="rId202" xr:uid="{C5A5669A-80F1-4FC0-9B01-33D57A34B2D7}"/>
+    <hyperlink ref="C63" r:id="rId203" xr:uid="{CBFC4D25-3E3E-473D-8D9F-5A38DEFE002B}"/>
+    <hyperlink ref="C94" r:id="rId204" xr:uid="{160FD6C9-5B84-46BF-B65D-4F1FEA5B0AC1}"/>
+    <hyperlink ref="C125" r:id="rId205" xr:uid="{9B6078EA-8848-45E6-B817-0245E0F0F924}"/>
+    <hyperlink ref="C156" r:id="rId206" xr:uid="{7F6E279A-2AF3-4BDA-9804-52667E3EB4ED}"/>
+    <hyperlink ref="C187" r:id="rId207" xr:uid="{BDAE1EB1-A6CB-472C-9BB8-A4389F03D36A}"/>
+    <hyperlink ref="C218" r:id="rId208" xr:uid="{E1D92EDC-65F6-4C66-9277-F653C44F2BA6}"/>
+    <hyperlink ref="C249" r:id="rId209" xr:uid="{D2908CD0-04CB-4516-9B21-94D2C9AA20D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
